--- a/Projectplan.xlsx
+++ b/Projectplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FRAUAS\Rat-Detector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repos\Rat-Detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC40FF3-412E-4C20-98E5-109E63C2755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA13DE4-784A-4F9D-B1D9-065EF85C7359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{72EFA416-9A64-432B-BE42-4387C54C0BF3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{72EFA416-9A64-432B-BE42-4387C54C0BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -817,22 +817,22 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1019,7 +1019,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1177,7 +1177,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
@@ -1197,12 +1197,12 @@
       <c r="O18" s="2"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="12"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1216,7 +1216,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>19</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="N24" s="13"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1331,7 +1331,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>17</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1408,7 +1408,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>40</v>
       </c>
@@ -1427,7 +1427,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>42</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="O31" s="22"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>41</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="O32" s="17"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -1485,7 +1485,7 @@
       <c r="O33" s="17"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>36</v>
       </c>

--- a/Projectplan.xlsx
+++ b/Projectplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FRAUAS\Rat-Detector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\FRAUAS\Master_1_semester\Rat-Detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC40FF3-412E-4C20-98E5-109E63C2755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2DB550-0243-4BC7-A97B-4F5138603D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21160" xr2:uid="{72EFA416-9A64-432B-BE42-4387C54C0BF3}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{72EFA416-9A64-432B-BE42-4387C54C0BF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Milestones</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>Application</t>
+  </si>
+  <si>
+    <t>ca 1000 Pic: Lucas Sister -&gt; sort out video frames, 500 pic: from previous students</t>
+  </si>
+  <si>
+    <t>yolov5 was choosen, source: https://peerj.com/preprints/27880.pdf</t>
+  </si>
+  <si>
+    <t>Trainig of a Model has been completed,  optimization needed, check for overfitting</t>
+  </si>
+  <si>
+    <t>data was labeld with roboflow</t>
   </si>
 </sst>
 </file>
@@ -473,30 +485,78 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
@@ -817,12 +877,15 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -886,620 +949,635 @@
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="7"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="9"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="7"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="P24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="13"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="7"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="O30" s="2"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="18"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="18"/>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="10"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
@@ -1507,6 +1585,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>